--- a/quechua.xlsx
+++ b/quechua.xlsx
@@ -3,15 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="presente simple" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="presente progresivo" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="presente habitual" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="pasado experimentado simple" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="pasado experimentado progresivo" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="pasado experimentado habitual" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="pasado no experimentado simple" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="pasado no experimentado progres" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="pasado no experimentado habitua" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="presente 1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="presente 2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="presente 3" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="pasado experimentado 1" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="pasado experimentado 2" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="pasado experimentado 3" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="pasado no experimentado 1" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="pasado no experimentado 2" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="pasado no experimentado 3" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
